--- a/Principles of Computational Modelling in Neuroscience.xlsx
+++ b/Principles of Computational Modelling in Neuroscience.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="570" windowWidth="27555" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="570" windowWidth="27555" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -271,6 +271,18 @@
                 <c:pt idx="4">
                   <c:v>18.148148149581782</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.336798337178053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.148148149581782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.336798337178053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.529411763986847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -313,6 +325,18 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16.166853582418373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.554788274085823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.321383951855186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.52442503357091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.664629320485247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,30 +1034,156 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="12">
+        <v>42965.033333333333</v>
+      </c>
+      <c r="B7">
+        <v>267</v>
+      </c>
+      <c r="C7" s="12">
+        <v>42965.073611111111</v>
+      </c>
+      <c r="D7">
+        <v>277</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" ref="E7" si="16">C7-A7</f>
+        <v>4.0277777778101154E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7" si="17">D7-B7+1</f>
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7" si="18">F7/(E7*24*60)</f>
+        <v>0.18965517241227042</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7" si="19">G7*60</f>
+        <v>11.379310344736226</v>
+      </c>
+      <c r="I7" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H7)</f>
+        <v>18.336798337178053</v>
+      </c>
+      <c r="J7" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H7)</f>
+        <v>17.554788274085823</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="12">
+        <v>42965.666666666664</v>
+      </c>
+      <c r="B8">
+        <v>278</v>
+      </c>
+      <c r="C8" s="12">
+        <v>42965.681944444441</v>
+      </c>
+      <c r="D8">
+        <v>285</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" ref="E8" si="20">C8-A8</f>
+        <v>1.5277777776645962E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="21">D8-B8+1</f>
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8" si="22">F8/(E8*24*60)</f>
+        <v>0.36363636366330271</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8" si="23">G8*60</f>
+        <v>21.818181819798163</v>
+      </c>
+      <c r="I8" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H8)</f>
+        <v>18.148148149581782</v>
+      </c>
+      <c r="J8" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H8)</f>
+        <v>17.321383951855186</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="12">
+        <v>42965.931944444441</v>
+      </c>
+      <c r="B9">
+        <v>286</v>
+      </c>
+      <c r="C9" s="12">
+        <v>42965.956944444442</v>
+      </c>
+      <c r="D9">
+        <v>296</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" ref="E9" si="24">C9-A9</f>
+        <v>2.5000000001455192E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="25">D9-B9+1</f>
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ref="G9" si="26">F9/(E9*24*60)</f>
+        <v>0.30555555553776986</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9" si="27">G9*60</f>
+        <v>18.333333332266193</v>
+      </c>
+      <c r="I9" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H9)</f>
+        <v>18.336798337178053</v>
+      </c>
+      <c r="J9" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H9)</f>
+        <v>17.52442503357091</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="12">
+        <v>42965.821527777778</v>
+      </c>
+      <c r="B10">
+        <v>297</v>
+      </c>
+      <c r="C10" s="12">
+        <v>42965.859722222223</v>
+      </c>
+      <c r="D10">
+        <v>313</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" ref="E10" si="28">C10-A10</f>
+        <v>3.8194444445252884E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10" si="29">D10-B10+1</f>
+        <v>17</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10" si="30">F10/(E10*24*60)</f>
+        <v>0.30909090908436676</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ref="H10" si="31">G10*60</f>
+        <v>18.545454545062007</v>
+      </c>
+      <c r="I10" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H10)</f>
+        <v>18.529411763986847</v>
+      </c>
+      <c r="J10" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H10)</f>
+        <v>17.664629320485247</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
@@ -1851,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1874,7 +2024,7 @@
       </c>
       <c r="B26">
         <f>MAX(Sheet1!D2:D1000)</f>
-        <v>96</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1883,7 +2033,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26/B25*100</f>
-        <v>27.428571428571431</v>
+        <v>89.428571428571431</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,7 +2042,7 @@
       </c>
       <c r="B28">
         <f>B25-B26</f>
-        <v>254</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,7 +2051,7 @@
       </c>
       <c r="B29" s="4">
         <f>B28/B25*100</f>
-        <v>72.571428571428569</v>
+        <v>10.571428571428571</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,7 +2060,7 @@
       </c>
       <c r="B30" s="4">
         <f>B25/H38</f>
-        <v>18.148148149581782</v>
+        <v>18.529411763986847</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +2069,7 @@
       </c>
       <c r="B31" s="4">
         <f>B25/H39</f>
-        <v>16.166853582418373</v>
+        <v>17.664629320485247</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1928,7 +2078,7 @@
       </c>
       <c r="B32" s="2">
         <f>ABS(B30-B31)</f>
-        <v>1.9812945671634097</v>
+        <v>0.86478244350159983</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1937,7 +2087,7 @@
       </c>
       <c r="B33" s="2">
         <f>B28/H38</f>
-        <v>13.17037037141078</v>
+        <v>1.9588235293357523</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1946,7 +2096,7 @@
       </c>
       <c r="B34" s="2">
         <f>B28/H39</f>
-        <v>11.73251659981219</v>
+        <v>1.8674036710227262</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1969,7 +2119,7 @@
       </c>
       <c r="E36" s="11">
         <f>MIN(Sheet1!E2:E1000)</f>
-        <v>3.680555555911269E-2</v>
+        <v>1.5277777776645962E-2</v>
       </c>
       <c r="F36" s="4">
         <f>MIN(Sheet1!F2:F1000)</f>
@@ -2015,15 +2165,15 @@
       </c>
       <c r="F38" s="4">
         <f>MEDIAN(Sheet1!F2:F1000)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="4">
         <f>MEDIAN(Sheet1!G2:G1000)</f>
-        <v>0.32142857140317982</v>
+        <v>0.31481481482703122</v>
       </c>
       <c r="H38" s="4">
         <f>MEDIAN(Sheet1!H2:H1000)</f>
-        <v>19.285714284190789</v>
+        <v>18.888888889621875</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2032,19 +2182,19 @@
       </c>
       <c r="E39" s="11">
         <f>AVERAGE(Sheet1!E2:E1000)</f>
-        <v>3.8055555557366463E-2</v>
+        <v>3.4336419754254166E-2</v>
       </c>
       <c r="F39" s="4">
         <f>AVERAGE(Sheet1!F2:F1000)</f>
-        <v>20</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="G39" s="4">
         <f>AVERAGE(Sheet1!G2:G1000)</f>
-        <v>0.36082057053310279</v>
+        <v>0.33022676148480268</v>
       </c>
       <c r="H39" s="4">
         <f>AVERAGE(Sheet1!H2:H1000)</f>
-        <v>21.649234231986167</v>
+        <v>19.81360568908816</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2053,11 +2203,11 @@
       </c>
       <c r="E40" s="3" t="str">
         <f>TEXT(SUM(Sheet1!E2:E1000), "d:h:mm:ss")</f>
-        <v>0:4:34:00</v>
+        <v>0:7:25:00</v>
       </c>
       <c r="F40" s="4">
         <f>SUM(Sheet1!F2:F1000)</f>
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>

--- a/Principles of Computational Modelling in Neuroscience.xlsx
+++ b/Principles of Computational Modelling in Neuroscience.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="570" windowWidth="27555" windowHeight="12240"/>
+    <workbookView xWindow="780" yWindow="570" windowWidth="27555" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -252,10 +252,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$100</c:f>
+              <c:f>Sheet1!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>18.148148149581782</c:v>
                 </c:pt>
@@ -307,10 +307,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$100</c:f>
+              <c:f>Sheet1!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>18.148148149581782</c:v>
                 </c:pt>
@@ -353,11 +353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50834432"/>
-        <c:axId val="46943040"/>
+        <c:axId val="114783744"/>
+        <c:axId val="53138496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50834432"/>
+        <c:axId val="114783744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46943040"/>
+        <c:crossAx val="53138496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -413,7 +413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46943040"/>
+        <c:axId val="53138496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50834432"/>
+        <c:crossAx val="114783744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2001,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
